--- a/LF/PreTAS/Senegal/sn_lf_pretas_3_fts_result_202007.xlsx
+++ b/LF/PreTAS/Senegal/sn_lf_pretas_3_fts_result_202007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C53F9-CB68-4ACF-9E4C-3CAFAF9930A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2604E3C-E51A-4991-BC7C-5FAB78EBAA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="234">
   <si>
     <t>form_title</t>
   </si>
@@ -110,24 +110,6 @@
     <t>constraint_message::French</t>
   </si>
   <si>
-    <t>eu_list</t>
-  </si>
-  <si>
-    <t>EU1</t>
-  </si>
-  <si>
-    <t>EU2</t>
-  </si>
-  <si>
-    <t>Distric1</t>
-  </si>
-  <si>
-    <t>Distric2</t>
-  </si>
-  <si>
-    <t>Distric3</t>
-  </si>
-  <si>
     <t>district_list</t>
   </si>
   <si>
@@ -377,9 +359,6 @@
     <t>${d_final_result} = 'Positive'</t>
   </si>
   <si>
-    <t>bj_lf_tas2_3_fts_result_202006</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
@@ -444,9 +423,6 @@
   </si>
   <si>
     <t>Additional Notes on form</t>
-  </si>
-  <si>
-    <t>3. TAS2 FL FTS Résultat</t>
   </si>
   <si>
     <t>French</t>
@@ -512,6 +488,261 @@
   </si>
   <si>
     <t xml:space="preserve">Le résultat final de ce participant est : ${d_final_result} </t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 3. Pre-TAS FL Résultat FTS</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_3_fts_result_202009</t>
+  </si>
+  <si>
+    <t>Bakel</t>
+  </si>
+  <si>
+    <t>Bambey</t>
+  </si>
+  <si>
+    <t>Dianke Makha</t>
+  </si>
+  <si>
+    <t>Joal</t>
+  </si>
+  <si>
+    <t>Kidira</t>
+  </si>
+  <si>
+    <t>Kolda</t>
+  </si>
+  <si>
+    <t>Koumpentoum</t>
+  </si>
+  <si>
+    <t>Mbacke</t>
+  </si>
+  <si>
+    <t>Mbour</t>
+  </si>
+  <si>
+    <t>Tambacounda</t>
+  </si>
+  <si>
+    <t>Thiadiaye</t>
+  </si>
+  <si>
+    <t>Thies</t>
+  </si>
+  <si>
+    <t>Tivaouane</t>
+  </si>
+  <si>
+    <t>Velingara</t>
+  </si>
+  <si>
+    <t>site_list</t>
+  </si>
+  <si>
+    <t>Bambey Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambey Serere (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Bani Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bani Israel (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Bode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bode (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Bouborel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bouborel (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Dalla Escale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalla Escale  (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Dialacoto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialacoto  (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Gathiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gathiary (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Gourel Mandiou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gourel Mandiou  (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Hanene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanene (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Keneba Yero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keneba Yero (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Lycounda peulh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lycounda peulh (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>M’Boul Kael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M’Boul Kael (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Mansekodji  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansekodji   (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Mboulouctene Secco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mboulouctene Secco (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Ndiarogne serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndiarogne serere (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Ndiaye Bopp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndiaye Bopp (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Nguedji Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguedji Martin (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Ouassadou2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouassadou2  (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Payar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payar  (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Refane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refane (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Sandiara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandiara (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Sare Bilaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sare Bilaly (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Sinthiane Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinthiane Serere (Controle ponctuel) </t>
+  </si>
+  <si>
+    <t>Sinthiou goundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinthiou goundo (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Sinthiou Keita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinthiou Keita (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Sira doundou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sira doundou (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Taïba SANTHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taïba SANTHE (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>Tassette Peul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tassette Peul (Site sentinelle) </t>
+  </si>
+  <si>
+    <t>code_site_list</t>
+  </si>
+  <si>
+    <t>select_one district_list</t>
+  </si>
+  <si>
+    <t>Select your district</t>
+  </si>
+  <si>
+    <t>Sélectionner le district</t>
+  </si>
+  <si>
+    <t>select_one site_list</t>
+  </si>
+  <si>
+    <t>Select the site</t>
+  </si>
+  <si>
+    <t>Sélectionner le site</t>
+  </si>
+  <si>
+    <t>d_district</t>
+  </si>
+  <si>
+    <t>d_cluster_name</t>
+  </si>
+  <si>
+    <t>site_list = ${d_cluster_name}</t>
+  </si>
+  <si>
+    <t>district_list = ${d_district}</t>
+  </si>
+  <si>
+    <t>select_one code_site_list</t>
   </si>
 </sst>
 </file>
@@ -639,7 +870,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,6 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1027,36 +1259,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.38671875" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="49.375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.38671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.609375" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.38671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1106,12 +1338,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -1120,347 +1352,351 @@
         <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="15"/>
       <c r="M2" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="21"/>
+      <c r="E3" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="19"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="24"/>
+        <v>230</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="14"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>54</v>
+        <v>233</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="E5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="11"/>
       <c r="M5" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O5" s="20"/>
+      <c r="P5" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>144</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="E6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="11"/>
       <c r="M6" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>134</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="11" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="29"/>
+    <row r="9" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="L9" s="11"/>
       <c r="M9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="29" t="s">
-        <v>136</v>
-      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="11"/>
       <c r="M10" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="27"/>
+        <v>77</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>147</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="30"/>
       <c r="J11" s="23"/>
-      <c r="K11" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="K11" s="29"/>
       <c r="L11" s="11"/>
       <c r="M11" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="E12" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="F12" s="23"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="30"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="K12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="10"/>
@@ -1468,302 +1704,314 @@
       <c r="I13" s="30"/>
       <c r="J13" s="23"/>
       <c r="K13" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="30"/>
       <c r="J14" s="23"/>
-      <c r="K14" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="10"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="M14" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="34" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="33"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="34"/>
+        <v>79</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>147</v>
+      </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="29" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="32"/>
+        <v>63</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="F18" s="34"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
       <c r="K18" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="31"/>
+        <v>122</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="32"/>
+        <v>64</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>144</v>
+      </c>
       <c r="F19" s="34"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
       <c r="K19" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" s="31"/>
+        <v>123</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>109</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C20" s="32"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
-        <v>156</v>
-      </c>
+      <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="31"/>
+      <c r="K20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>75</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="33"/>
-      <c r="E21" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
       <c r="K21" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" s="31"/>
+        <v>102</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>145</v>
+      </c>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="36"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>69</v>
+      </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="E23" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
-      <c r="K23" s="36"/>
+      <c r="K23" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="32"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="34" t="s">
+        <v>146</v>
+      </c>
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
@@ -1776,6 +2024,50 @@
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
     </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1784,22 +2076,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B1:B20"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1815,287 +2107,1360 @@
       <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44">
+        <v>101</v>
+      </c>
+      <c r="C44">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45">
+        <v>102</v>
+      </c>
+      <c r="C45">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>103</v>
+      </c>
+      <c r="D46">
+        <v>103</v>
+      </c>
+      <c r="F46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47">
+        <v>104</v>
+      </c>
+      <c r="C47">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49">
+        <v>106</v>
+      </c>
+      <c r="C49">
+        <v>106</v>
+      </c>
+      <c r="D49">
+        <v>106</v>
+      </c>
+      <c r="F49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51">
+        <v>108</v>
+      </c>
+      <c r="C51">
+        <v>108</v>
+      </c>
+      <c r="D51">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52">
+        <v>109</v>
+      </c>
+      <c r="C52">
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53">
+        <v>110</v>
+      </c>
+      <c r="C53">
+        <v>110</v>
+      </c>
+      <c r="D53">
+        <v>110</v>
+      </c>
+      <c r="F53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>111</v>
+      </c>
+      <c r="D54">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>112</v>
+      </c>
+      <c r="D55">
+        <v>112</v>
+      </c>
+      <c r="F55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56">
+        <v>113</v>
+      </c>
+      <c r="C56">
+        <v>113</v>
+      </c>
+      <c r="D56">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57">
+        <v>114</v>
+      </c>
+      <c r="C57">
+        <v>114</v>
+      </c>
+      <c r="D57">
+        <v>114</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58">
+        <v>115</v>
+      </c>
+      <c r="C58">
+        <v>115</v>
+      </c>
+      <c r="D58">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59">
+        <v>116</v>
+      </c>
+      <c r="C59">
+        <v>116</v>
+      </c>
+      <c r="D59">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60">
+        <v>117</v>
+      </c>
+      <c r="C60">
+        <v>117</v>
+      </c>
+      <c r="D60">
+        <v>117</v>
+      </c>
+      <c r="F60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61">
+        <v>118</v>
+      </c>
+      <c r="C61">
+        <v>118</v>
+      </c>
+      <c r="D61">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62">
+        <v>119</v>
+      </c>
+      <c r="C62">
+        <v>119</v>
+      </c>
+      <c r="D62">
+        <v>119</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63">
+        <v>120</v>
+      </c>
+      <c r="C63">
+        <v>120</v>
+      </c>
+      <c r="D63">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64">
+        <v>121</v>
+      </c>
+      <c r="C64">
+        <v>121</v>
+      </c>
+      <c r="D64">
+        <v>121</v>
+      </c>
+      <c r="F64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65">
+        <v>122</v>
+      </c>
+      <c r="C65">
+        <v>122</v>
+      </c>
+      <c r="D65">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66">
+        <v>123</v>
+      </c>
+      <c r="C66">
+        <v>123</v>
+      </c>
+      <c r="D66">
+        <v>123</v>
+      </c>
+      <c r="F66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67">
+        <v>124</v>
+      </c>
+      <c r="C67">
+        <v>124</v>
+      </c>
+      <c r="D67">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68">
+        <v>125</v>
+      </c>
+      <c r="C68">
+        <v>125</v>
+      </c>
+      <c r="D68">
+        <v>125</v>
+      </c>
+      <c r="F68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69">
+        <v>126</v>
+      </c>
+      <c r="C69">
+        <v>126</v>
+      </c>
+      <c r="D69">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70">
+        <v>127</v>
+      </c>
+      <c r="C70">
+        <v>127</v>
+      </c>
+      <c r="D70">
+        <v>127</v>
+      </c>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71">
+        <v>128</v>
+      </c>
+      <c r="C71">
+        <v>128</v>
+      </c>
+      <c r="D71">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
         <v>92</v>
       </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D85" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
-    <sortCondition ref="B14:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A79:C124">
+    <sortCondition ref="B79:B124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2104,17 +3469,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2128,18 +3493,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>20200402</v>
+        <v>20200907</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Senegal/sn_lf_pretas_3_fts_result_202007.xlsx
+++ b/LF/PreTAS/Senegal/sn_lf_pretas_3_fts_result_202007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2604E3C-E51A-4991-BC7C-5FAB78EBAA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893624B-CF48-4C2B-8F0A-9D80836B6629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="234">
   <si>
     <t>form_title</t>
   </si>
@@ -490,12 +490,6 @@
     <t xml:space="preserve">Le résultat final de ce participant est : ${d_final_result} </t>
   </si>
   <si>
-    <t>(Septembre 2020) 3. Pre-TAS FL Résultat FTS</t>
-  </si>
-  <si>
-    <t>bj_lf_pretas_3_fts_result_202009</t>
-  </si>
-  <si>
     <t>Bakel</t>
   </si>
   <si>
@@ -743,6 +737,12 @@
   </si>
   <si>
     <t>select_one code_site_list</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_3_fts_result_202009_v2</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 3. Pre-TAS FL Résultat FTS V2</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,6 +971,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1262,10 +1268,10 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1378,17 +1384,17 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
@@ -1406,17 +1412,17 @@
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
@@ -1431,12 +1437,12 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>133</v>
@@ -1461,7 +1467,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="20"/>
       <c r="P5" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
@@ -1918,57 +1924,55 @@
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="29" t="s">
-        <v>102</v>
-      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+    </row>
+    <row r="22" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="36" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="29"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" spans="1:16" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
@@ -2108,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2116,13 +2120,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2130,13 +2134,13 @@
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2144,13 +2148,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2158,13 +2162,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2172,13 +2176,13 @@
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2186,13 +2190,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2200,13 +2204,13 @@
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2214,13 +2218,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2228,13 +2232,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2242,13 +2246,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2256,13 +2260,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2270,13 +2274,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2284,13 +2288,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2298,494 +2302,494 @@
         <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B44">
         <v>101</v>
@@ -2797,12 +2801,12 @@
         <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B45">
         <v>102</v>
@@ -2814,12 +2818,12 @@
         <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46">
         <v>103</v>
@@ -2831,12 +2835,12 @@
         <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B47">
         <v>104</v>
@@ -2848,12 +2852,12 @@
         <v>104</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48">
         <v>105</v>
@@ -2865,12 +2869,12 @@
         <v>105</v>
       </c>
       <c r="F48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B49">
         <v>106</v>
@@ -2882,12 +2886,12 @@
         <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B50">
         <v>107</v>
@@ -2899,12 +2903,12 @@
         <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B51">
         <v>108</v>
@@ -2916,12 +2920,12 @@
         <v>108</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B52">
         <v>109</v>
@@ -2933,12 +2937,12 @@
         <v>109</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B53">
         <v>110</v>
@@ -2950,12 +2954,12 @@
         <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B54">
         <v>111</v>
@@ -2967,12 +2971,12 @@
         <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B55">
         <v>112</v>
@@ -2984,12 +2988,12 @@
         <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56">
         <v>113</v>
@@ -3001,12 +3005,12 @@
         <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B57">
         <v>114</v>
@@ -3018,12 +3022,12 @@
         <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B58">
         <v>115</v>
@@ -3035,12 +3039,12 @@
         <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B59">
         <v>116</v>
@@ -3052,12 +3056,12 @@
         <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B60">
         <v>117</v>
@@ -3069,12 +3073,12 @@
         <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B61">
         <v>118</v>
@@ -3086,12 +3090,12 @@
         <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B62">
         <v>119</v>
@@ -3103,12 +3107,12 @@
         <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -3120,12 +3124,12 @@
         <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B64">
         <v>121</v>
@@ -3137,12 +3141,12 @@
         <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B65">
         <v>122</v>
@@ -3154,12 +3158,12 @@
         <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B66">
         <v>123</v>
@@ -3171,12 +3175,12 @@
         <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B67">
         <v>124</v>
@@ -3188,12 +3192,12 @@
         <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B68">
         <v>125</v>
@@ -3205,12 +3209,12 @@
         <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B69">
         <v>126</v>
@@ -3222,12 +3226,12 @@
         <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B70">
         <v>127</v>
@@ -3239,12 +3243,12 @@
         <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B71">
         <v>128</v>
@@ -3256,7 +3260,7 @@
         <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3469,7 +3473,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -3495,10 +3499,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="C2">
         <v>20200907</v>
